--- a/03_Outputs/all/01_TablasDescriptivas/idx3_climatico_vr.xlsx
+++ b/03_Outputs/all/01_TablasDescriptivas/idx3_climatico_vr.xlsx
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>1.1451998596936</v>
+        <v>1.145199859693601</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -404,7 +404,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.9604185687959755</v>
+        <v>0.960418568795976</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -422,7 +422,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.8943815715104227</v>
+        <v>0.8943815715104237</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -440,7 +440,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>1.1451998596936</v>
+        <v>1.145199859693601</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -458,7 +458,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>2.105618428489576</v>
+        <v>2.105618428489577</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>2.999999999999998</v>
+        <v>3.000000000000001</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>32.0139522931992</v>
+        <v>32.01395229319919</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="B10">
-        <v>29.81271905034744</v>
+        <v>29.81271905034745</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="B12">
-        <v>70.18728094965256</v>
+        <v>70.18728094965255</v>
       </c>
       <c r="C12">
         <v>2</v>
